--- a/static/2025-07-29 FINAL_TEMPLATE.xlsx
+++ b/static/2025-07-29 FINAL_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dksh-my.sharepoint.com/personal/khunakorn_l_dksh_com/Documents/9999-99-99 GitRepo/dksh-raw-tds-parser/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{8F816910-032F-46A3-8F79-84F515976800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{908309E3-2B2D-4416-8217-08260F99C18C}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{8F816910-032F-46A3-8F79-84F515976800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{052DE698-3771-45F9-85A3-850FD57D2E6A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
+    <workbookView minimized="1" xWindow="26700" yWindow="1485" windowWidth="23235" windowHeight="10425" activeTab="8" xr2:uid="{D4FF3B06-7D21-456E-96A2-0F98008C5B33}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="6" r:id="rId1"/>
@@ -3995,7 +3995,7 @@
     <t>XX PDF - XX PROD</t>
   </si>
   <si>
-    <t>31 PDF - 61 PROD</t>
+    <t>31 PDF - 53 PROD</t>
   </si>
 </sst>
 </file>
@@ -4476,7 +4476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4812,12 +4812,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -17638,7 +17632,7 @@
   <dimension ref="B2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17728,11 +17722,15 @@
       <c r="F5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="G5" s="127"/>
+      <c r="G5" s="127">
+        <v>0.3</v>
+      </c>
       <c r="H5" s="113" t="s">
         <v>1054</v>
       </c>
-      <c r="I5" s="127"/>
+      <c r="I5" s="127">
+        <v>0.31</v>
+      </c>
       <c r="J5" s="113" t="s">
         <v>1054</v>
       </c>
@@ -17749,11 +17747,15 @@
       <c r="F6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="G6" s="128"/>
+      <c r="G6" s="128">
+        <v>0.18</v>
+      </c>
       <c r="H6" s="102" t="s">
         <v>1064</v>
       </c>
-      <c r="I6" s="128"/>
+      <c r="I6" s="128">
+        <v>0.35699999999999998</v>
+      </c>
       <c r="J6" s="102" t="s">
         <v>1064</v>
       </c>
@@ -17770,11 +17772,15 @@
       <c r="F7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="G7" s="129"/>
+      <c r="G7" s="129">
+        <v>2.27</v>
+      </c>
       <c r="H7" s="105" t="s">
         <v>1068</v>
       </c>
-      <c r="I7" s="129"/>
+      <c r="I7" s="129">
+        <v>4.09</v>
+      </c>
       <c r="J7" s="105" t="s">
         <v>1068</v>
       </c>
@@ -17793,14 +17799,14 @@
       </c>
       <c r="G8" s="127">
         <f>SUM(G5:G7)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H8" s="107" t="s">
         <v>1060</v>
       </c>
       <c r="I8" s="127">
         <f>SUM(I5:I7)</f>
-        <v>0</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="J8" s="107" t="s">
         <v>1060</v>
@@ -17826,14 +17832,14 @@
       </c>
       <c r="G9" s="128">
         <f>G8*1.3</f>
-        <v>0</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="H9" s="110" t="s">
         <v>1060</v>
       </c>
       <c r="I9" s="128">
         <f>I8*1.3</f>
-        <v>0</v>
+        <v>6.1840999999999999</v>
       </c>
       <c r="J9" s="110" t="s">
         <v>1060</v>
@@ -17859,12 +17865,15 @@
       </c>
       <c r="G10" s="130">
         <f>G9/30</f>
-        <v>0</v>
+        <v>0.11916666666666667</v>
       </c>
       <c r="H10" s="119" t="s">
         <v>1060</v>
       </c>
-      <c r="I10" s="130"/>
+      <c r="I10" s="130">
+        <f>I9/53</f>
+        <v>0.11668113207547169</v>
+      </c>
       <c r="J10" s="119" t="s">
         <v>1060</v>
       </c>
@@ -17878,181 +17887,160 @@
       <c r="E12" s="113" t="s">
         <v>1069</v>
       </c>
-      <c r="F12" s="141">
+      <c r="F12" s="139">
         <v>5180000</v>
       </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137">
-        <v>7700000</v>
-      </c>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137">
-        <f>H13</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137">
-        <f>J13</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="137"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135">
+        <v>8880000</v>
+      </c>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E13" s="102" t="s">
         <v>1070</v>
       </c>
-      <c r="F13" s="142">
+      <c r="F13" s="140">
         <v>5570000</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136">
+        <v>9650000</v>
+      </c>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E14" s="117" t="s">
         <v>1071</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="141">
         <f>F13-F12</f>
         <v>390000</v>
       </c>
       <c r="G14" s="132"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="139">
-        <f>J13-J12</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="140"/>
-      <c r="L14" s="139">
-        <f>L13-L12</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="140"/>
+      <c r="H14" s="141">
+        <f>H13-H12</f>
+        <v>770000</v>
+      </c>
+      <c r="I14" s="132"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="138"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E15" s="113" t="s">
         <v>1072</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="139">
         <v>198030</v>
       </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137">
-        <v>351690</v>
-      </c>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137">
-        <f>H16</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137">
-        <f>J16</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="137"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135">
+        <v>406090</v>
+      </c>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E16" s="102" t="s">
         <v>1073</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="140">
         <v>215500</v>
       </c>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136">
+        <v>436490</v>
+      </c>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E17" s="117" t="s">
         <v>1074</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="141">
         <f>F16-F15</f>
         <v>17470</v>
       </c>
       <c r="G17" s="132"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="139">
-        <f>J16-J15</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="140"/>
-      <c r="L17" s="139">
-        <f>L16-L15</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="140"/>
+      <c r="H17" s="141">
+        <f>H16-H15</f>
+        <v>30400</v>
+      </c>
+      <c r="I17" s="132"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="138"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E18" s="113" t="s">
         <v>1075</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="142">
         <v>19.600000000000001</v>
       </c>
-      <c r="G18" s="145"/>
+      <c r="G18" s="143"/>
       <c r="H18" s="133">
-        <v>28.93</v>
+        <v>84.99</v>
       </c>
       <c r="I18" s="133"/>
-      <c r="J18" s="137">
-        <f>H19</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137">
-        <f>J19</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="137"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E19" s="102" t="s">
         <v>1076</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="144">
         <v>21.87</v>
       </c>
-      <c r="G19" s="147"/>
-      <c r="H19" s="134"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="134">
+        <v>89.08</v>
+      </c>
       <c r="I19" s="134"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E20" s="117" t="s">
         <v>1077</v>
       </c>
-      <c r="F20" s="148">
+      <c r="F20" s="146">
         <f>F19-F18</f>
         <v>2.2699999999999996</v>
       </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="139">
-        <f>J19-J18</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="140"/>
-      <c r="L20" s="139">
-        <f>L19-L18</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="140"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="146">
+        <f>H19-H18</f>
+        <v>4.0900000000000034</v>
+      </c>
+      <c r="I20" s="147"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="44">
